--- a/us_stock_data/stock_price.xlsx
+++ b/us_stock_data/stock_price.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrdoggie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrdoggie/Desktop/Project/Columbia-COMS4995-StockPrediction/us_stock_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5840" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AAPL" sheetId="1" r:id="rId1"/>
     <sheet name="AMZN" sheetId="2" r:id="rId2"/>
     <sheet name="FB" sheetId="3" r:id="rId3"/>
     <sheet name="GOOG" sheetId="4" r:id="rId4"/>
+    <sheet name="MSFT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
   <si>
     <t>price</t>
   </si>
@@ -19317,7 +19318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -25631,4 +25632,6324 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1261"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>24.508244000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>23.720196000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>23.501290999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>23.343685000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>23.2211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>23.404978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>23.387466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>23.597614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>24.254315999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>23.982873999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>23.711442999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>23.956612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>23.597614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>23.308664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>23.142296000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>23.089766999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>23.352437999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>23.404978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>23.168565999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>23.588857999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>23.921586999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23.85154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23.737708999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23.475024999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23.728950999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24.131727000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>23.912828000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>24.236802999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>24.035413999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>23.693928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>23.518808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>23.606366999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>23.24737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>23.387466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>24.184266999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>23.860291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>23.413733000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>23.369955000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>23.24737</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>23.378708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>23.168565999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>23.492538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>23.545074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>23.825274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>23.67642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>23.860291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>23.860291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>23.772732000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>24.175509999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>24.193017999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>24.411926000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>24.438193999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>24.525751</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>24.385657999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>24.035413999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>24.455705999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>24.026661000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>24.079198999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>23.939098000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>23.886564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>24.122973999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>24.394413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>24.411926000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>24.543264000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>24.552026999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>24.525751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>24.764130000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>24.605211000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>24.269729999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>24.508095000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>24.163784</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>24.163784</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>24.552242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>24.543410999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>24.675844000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>24.852412999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>25.028981999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>24.799441999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>24.843584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>24.719982000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>24.605211000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>24.640523999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>24.649353000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>24.843584</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>24.755299000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>24.80827</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>24.878896999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>25.002499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>24.817104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>24.940697</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>24.861242000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>24.861242000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>25.046637</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>25.258524000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>25.258524000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>25.426269999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>25.214382000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>25.249697000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>25.337983999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>25.240867999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>26.141378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>26.732900999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>25.549868</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>25.417442000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>25.329159000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>25.576357000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>25.452753000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>25.417442000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>26.282639</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>27.218468000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>27.015411</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>28.039522000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>28.198439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>28.066011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>28.789953000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>29.222553000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>28.887070000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>29.275525999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>29.566862</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>29.796410000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>29.407952999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>29.125439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>28.834092999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>28.860579000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>29.160751000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>29.809761000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>30.094252000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>30.298731</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>31.001083000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>31.187784000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>30.983298999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>30.769933999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>30.360968</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>30.467651</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>31.134439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>31.009979000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>31.143329999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>31.027750000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>31.641193000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>31.107766999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>30.921064000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>31.081097</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>31.712318</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>31.534506</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>30.974406999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>31.116665000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>30.867726999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>30.583231000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>31.116665000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>31.098870999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>30.752146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>29.774193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>29.578600000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>29.978677999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>29.934221000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>30.538779999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>30.77882</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>30.707691000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>30.547678000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>30.174268999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>30.236499999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>30.41431</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>30.520996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>30.538779999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>30.849948999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>31.730098999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>31.712318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>32.156834000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>32.245753999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>31.774554999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>31.507849</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>27.916081999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>28.458406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>28.289486</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>28.413954</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>27.907194</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>28.111677</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>28.040555999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>28.316158000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>28.307268000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>28.156130000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>28.351721000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>28.182804000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>28.076115000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>28.502856999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>29.240767999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>29.071843999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>29.222984</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>28.855909</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>28.963342999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>28.461973</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>28.470918999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>28.103846000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>28.309764999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>28.300816000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>28.999157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>31.112090999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>30.574905000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>29.778079999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>29.563206000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>30.03772</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>29.903421000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>28.542553000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>27.933734999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>27.960594</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>27.888971000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>28.345579000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>28.999157</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>29.312517</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>29.267752000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>29.572158999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>29.366237999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>29.48263</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>29.831797000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>30.118299</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>29.357281</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>29.312517</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>29.052876999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>29.106591999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>29.339382000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>29.787034999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>29.79598</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>30.064585000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>30.368986</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>30.315263999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>30.333172000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>29.813894000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>29.554252999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>29.607969000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>30.225733000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>30.556996999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>30.843506000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>30.879313</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>31.013611000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>31.264294</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>31.300101999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>31.326965000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>30.959890000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>30.225733000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>30.189924000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>31.989504</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>31.846249</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>31.801487000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>31.819389000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>31.703005000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>31.810438000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>32.177512999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>32.804240999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>34.183014</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>33.574202999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>33.824890000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>33.654778</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>33.448855999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>34.165107999999996</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>34.039768000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>33.878605</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>33.305618000000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>33.143222999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>33.449944000000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>33.738613000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>33.891975000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>33.955123999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>33.693508000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>33.919037000000003</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>34.397156000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>34.685817999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>34.559531999999997</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>35.127850000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>34.279881000000003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>34.60463</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>34.920372</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>34.379116000000003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>33.928058999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>33.576244000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>33.098129</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>33.278548999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>32.944766999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>32.998894</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>32.701199000000003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>33.197356999999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>33.034973000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>33.449944000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>33.774704</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>33.639381</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>33.639381</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>33.747642999999997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>33.522117999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>33.296593000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>32.592948999999997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>32.845531000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>32.259158999999997</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>32.051689000000003</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>32.511761</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>31.555531999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>32.277209999999997</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>33.161265999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>33.278548999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>32.818474000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>32.629027999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>32.412528999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>32.529808000000003</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>33.206383000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>32.502743000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>32.719245999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>33.071060000000003</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>33.251488000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>34.135548</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>32.908684000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>32.791409000000002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>32.313293000000002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>32.638058000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>32.980854000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>33.197356999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>33.531135999999996</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>33.801769</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>33.928058999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>33.937077000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>34.009785000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>34.091591000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>34.309714999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>34.518757000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>34.255187999999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>34.118858000000003</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>34.055233000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>34.409691000000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>34.818683999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>34.336982999999996</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>34.909560999999997</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>34.636909000000003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>34.673267000000003</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>34.446041000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>34.373341000000003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>34.555107</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>34.782330000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>34.436951000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>34.264271000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>34.582371000000002</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>35.945675000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>35.691192999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>36.654594000000003</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>36.500087999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>36.809092999999997</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>36.663685000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>36.163806999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>35.772990999999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>36.627322999999997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>37.254447999999996</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>37.645251999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>37.581626999999997</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>37.272624999999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>36.236511</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>36.172896999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>36.191066999999997</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>36.781829999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>35.772990999999998</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>35.636662000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>35.609394000000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>36.127448999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>36.718215999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>36.363754</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>36.300128999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>36.345573000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>36.072913999999997</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>36.227421</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>36.272869</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>37.145381999999998</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>36.818187999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>36.718215999999998</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>36.354660000000003</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>36.072913999999997</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>35.836613</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>35.500335999999997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>35.827517999999998</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>36.027473000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>35.936584000000003</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>36.327396</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>36.995552000000004</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>36.830807</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>36.245026000000003</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>36.455539999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>36.38232</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>36.318241</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>36.931483999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>36.702660000000002</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>36.720965999999997</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>36.785038</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>36.620292999999997</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>36.922336999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>37.471493000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>37.334209000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>36.876567999999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>36.904021999999998</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>37.718623999999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>37.965744000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>37.773544000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>37.627097999999997</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>37.398277</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>37.141998000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>37.736927000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>37.984051000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>38.148803999999998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>38.121349000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>37.993198</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>38.148803999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>38.432541000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>38.212871999999997</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>38.469150999999997</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>38.185412999999997</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>38.670516999999997</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>38.167110000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>38.322707999999999</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>38.350169999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>38.258636000000003</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>38.432541000000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>38.240333999999997</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>38.139656000000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>38.157950999999997</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>38.524062999999998</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>38.569823999999997</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>38.853572999999997</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>40.345474000000003</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>40.757347000000003</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>40.903790000000001</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>41.041080000000001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>41.031933000000002</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>41.068545999999998</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>40.638362999999998</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>40.729889</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>40.244793000000001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>40.171565999999999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>39.887833000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>39.503413999999999</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>39.228836000000001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>39.695621000000003</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>39.430199000000002</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>39.118996000000003</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>39.567489999999999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>39.540035000000003</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>39.540035000000003</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>39.832912</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>40.345474000000003</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>40.519379000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>40.995316000000003</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>41.288212000000001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>41.748702999999999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>41.398727000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>41.647399999999998</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>41.582923999999998</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>41.601345000000002</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>41.453983000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>41.325046999999998</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>41.334254999999999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>41.840809</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>41.527656999999998</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>41.407940000000004</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>41.684238000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>42.282887000000002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>42.798645</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>43.065727000000003</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>43.139408000000003</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>43.286762000000003</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>43.010475</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>42.586815000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>43.065727000000003</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>42.844687999999998</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>42.992049999999999</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>43.765686000000002</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>43.342033000000001</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>42.881535</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>43.360450999999998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>42.402611</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>42.743385000000004</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>42.771011000000001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>42.697322999999997</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>42.273682000000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>42.144730000000003</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>42.448661999999999</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>42.448661999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>41.932915000000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>43.084152000000003</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>42.227623000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>40.551411000000002</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>40.201439000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>40.275120000000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>39.805411999999997</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>39.363331000000002</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>40.183022000000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>40.597458000000003</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>41.334254999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>40.873759999999997</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>41.463200000000001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>42.485500000000002</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>42.282887000000002</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>42.817059</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>42.936787000000002</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>42.411816000000002</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>43.240723000000003</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>43.692005000000002</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>43.811732999999997</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>44.078823</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>44.852463</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>44.834041999999997</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>45.027450999999999</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>45.009025999999999</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>44.926139999999997</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>45.690562999999997</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>45.662936999999999</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>45.552422</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>45.172427999999996</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>44.690486999999997</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>45.135361000000003</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>44.468055999999997</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>44.106597999999998</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>43.995376999999998</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>44.254890000000003</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>44.310496999999998</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>45.061207000000003</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>44.912917999999998</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>44.560738000000001</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>45.265101999999999</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>44.875847</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>44.208553000000002</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>44.106597999999998</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>43.467106000000001</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>43.717342000000002</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>43.513438999999998</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>43.253933000000004</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>41.854472999999999</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>42.392014000000003</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>44.041718000000003</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>44.171478</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>44.468055999999997</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>44.903660000000002</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>44.616340999999998</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>44.375377999999998</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>43.976852000000001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>43.578322999999997</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>43.050044999999997</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>43.337356999999997</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>42.938828000000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>42.308598000000003</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>42.846145999999997</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>44.106597999999998</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>43.735881999999997</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>43.189059999999998</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>42.966636999999999</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>42.595908999999999</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>42.151038999999997</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>42.855412000000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>42.994433999999998</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>42.55883</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>43.680270999999998</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>43.726612000000003</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>43.569054000000001</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>39.537460000000003</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>38.175049000000001</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>38.935028000000003</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>37.442878999999998</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>38.258465000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>38.555042</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>38.777489000000003</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>39.342827</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>39.305756000000002</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>39.259417999999997</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>39.481845999999997</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>39.277949999999997</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>39.935988999999999</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>40.658893999999997</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>40.677554999999998</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>40.630890000000001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>40.602885999999998</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>40.938907999999998</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>41.209598999999997</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>41.153595000000003</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>41.060257</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>41.125591</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>40.929572999999998</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>40.957580999999998</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>40.397537</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>40.192191999999999</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>40.238861</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>39.538815</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>39.996169999999999</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>39.230784999999997</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>39.184108999999999</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>38.288055</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>38.624077</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>38.792088</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>38.922767999999998</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>39.669483</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>39.473475999999998</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>40.024185000000003</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>40.005507999999999</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>40.042850000000001</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>38.698746</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>38.465401</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>38.241385999999999</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>38.232047999999999</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>37.952038000000002</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>38.008037999999999</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>37.606670000000001</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>38.782756999999997</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>38.764088000000001</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>38.661414999999998</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>38.717426000000003</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>38.941437000000001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>38.978771000000002</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>38.876091000000002</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>39.445464999999999</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>39.352131</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>38.848095000000001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>40.052180999999997</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>39.800156000000001</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>40.126849999999997</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>40.453541000000001</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>44.681846999999998</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>44.831184</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>45.885928999999997</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>45.792591000000002</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>45.400554999999997</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>45.419231000000003</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>45.027194999999999</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>44.429820999999997</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>43.197738999999999</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>43.589767000000002</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>44.569831999999998</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>44.215141000000003</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>44.196468000000003</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>44.457828999999997</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>45.475231000000001</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>45.083202</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>44.812514999999998</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>44.699782999999996</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>44.699782999999996</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>44.549469000000002</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>44.060946999999999</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>43.769703</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>44.727966000000002</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>44.577655999999998</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>44.023364999999998</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>44.370967999999998</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>44.079734999999999</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>44.013969000000003</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>43.553631000000003</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>43.346953999999997</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>42.961768999999997</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>42.886615999999997</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>43.788502000000001</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>43.628788</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>43.187244</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>42.726902000000003</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>43.055714000000002</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>43.187244</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>43.891846000000001</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>43.309372000000003</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>43.431502999999999</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>43.130875000000003</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>42.877215999999997</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>42.886615999999997</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>42.520209999999999</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>41.684092999999997</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>41.477417000000003</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>41.759250999999999</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>41.712283999999997</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>41.702877000000001</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>41.618335999999999</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>41.561970000000002</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>41.825020000000002</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>41.909560999999997</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>42.783271999999997</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>42.858421</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>42.989947999999998</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>43.835472000000003</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>43.797893999999999</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>44.079734999999999</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>44.417941999999996</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>42.783271999999997</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>43.318767999999999</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>43.159050000000001</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>42.604767000000002</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>42.595382999999998</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>43.487873</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>44.042155999999999</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>43.873050999999997</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>43.976394999999997</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>44.662196999999999</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>44.699782999999996</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>43.797893999999999</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>43.910629</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>44.464916000000002</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>43.600600999999997</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>43.910629</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>43.901237000000002</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>44.154888</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>44.455520999999997</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>44.701393000000003</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>44.077258999999998</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>43.178882999999999</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>40.729618000000002</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>39.415149999999997</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>38.270904999999999</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>40.389175000000002</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>41.514510999999999</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>41.542884999999998</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>41.155174000000002</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>39.547535000000003</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>41.003860000000003</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>41.136246</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>40.294612999999998</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>41.505057999999998</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>40.729618000000002</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>40.937660000000001</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>41.117331999999998</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>40.701248</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>41.590167999999998</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>41.892780000000002</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>41.845497000000002</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>41.117331999999998</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>41.713104000000001</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>41.514510999999999</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>41.486141000000003</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>41.523972000000001</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>41.552340999999998</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>40.937660000000001</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>41.079509999999999</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>41.854953999999999</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>42.185935999999998</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>43.093769000000002</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>44.096172000000003</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>44.209648000000001</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>44.256934999999999</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>44.871613000000004</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>44.550091000000002</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>44.446067999999997</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>44.342041000000002</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>44.143447999999999</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>44.455520999999997</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>44.928348999999997</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>45.032372000000002</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>45.174216999999999</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>44.635196999999998</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>45.420096999999998</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>49.997093</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>51.302104999999997</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>50.772537</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>51.046771999999997</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>50.460472000000003</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>49.779591000000003</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>50.346984999999997</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>51.207538999999997</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>51.443953999999998</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>51.425041</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>51.935696</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>51.216991</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>50.602310000000003</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>50.734707</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>50.422642000000003</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>49.968722999999997</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>50.848190000000002</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>50.429295000000003</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>51.267082000000002</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>51.352764000000001</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>51.590775000000001</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>51.590775000000001</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>51.647902999999999</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>51.114758000000002</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>51.343243000000001</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>51.743099000000001</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>52.571376999999998</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>52.561847999999998</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>51.600296</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>53.228274999999996</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>53.133071999999999</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>53.114032999999999</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>52.342883999999998</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>52.618977000000001</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>51.467010000000002</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>52.495204999999999</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>52.552334000000002</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>53.437721000000003</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>53.028351000000001</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>51.533656999999998</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>52.200080999999997</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>52.695137000000003</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>53.142597000000002</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>52.999783000000001</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>53.266361000000003</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>53.837578000000001</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>53.609093000000001</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>52.818900999999997</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>52.171520000000001</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>52.409531000000001</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>51.457489000000002</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>49.667664000000002</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>49.819996000000003</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>49.791431000000003</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>50.248404999999998</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>49.163086</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>50.562584000000001</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>48.544266</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>48.134892000000001</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>48.353859</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>48.058726999999998</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>49.781910000000003</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>49.305889000000001</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>49.667664000000002</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>48.763233</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>49.562945999999997</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>52.447609</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>52.085830999999999</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>50.457850999999998</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>49.658146000000002</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>49.505825000000002</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>47.754078</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>47.040047000000001</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>46.916283</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>47.325657</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>47.306621999999997</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>48.077765999999997</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>48.988692999999998</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>50.263987999999998</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>50.043456999999997</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>49.688670999999999</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>50.484530999999997</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>49.074992999999999</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>49.247593000000002</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>49.957152999999998</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>49.190055999999998</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>48.787334000000001</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>50.417416000000003</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>50.772193999999999</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>50.196872999999997</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>49.890030000000003</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>48.931156000000001</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>49.525669000000001</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>50.666713999999999</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>49.909210000000002</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>50.887256999999998</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>50.983142999999998</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>51.385871999999999</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>52.114612999999999</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>52.411861000000002</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>51.289988999999998</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>51.644772000000003</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>51.846130000000002</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>51.750244000000002</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>51.980373</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>51.337929000000003</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>52.459805000000003</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>52.785823999999998</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>52.958412000000003</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>53.284435000000002</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>53.150191999999997</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>52.315975000000002</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>52.852936</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>52.220084999999997</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>52.181725</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>52.076262999999997</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>52.402275000000003</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>53.073486000000003</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>53.083072999999999</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>53.361148999999997</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>54.137833000000001</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>54.070709000000001</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>53.303615999999998</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>53.485793999999999</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>49.650317999999999</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>49.966746999999998</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>49.324294999999999</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>48.844859999999997</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>47.847636999999999</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>47.818874000000001</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>48.528441999999998</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>47.732574</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>47.818874000000001</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>47.88599</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>48.317486000000002</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>48.010646999999999</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>48.921574</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>48.950336</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>49.391418000000002</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>48.979111000000003</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>49.698256999999998</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>48.771304999999998</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>49.060974000000002</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>48.587845000000002</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>48.877524999999999</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>48.307831</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>49.814132999999998</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>50.325882</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>50.103797999999998</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>50.519001000000003</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>51.175593999999997</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>51.030754000000002</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>50.673492000000003</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>50.007247999999997</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>50.335540999999999</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>50.306572000000003</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>50.248638</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>49.843094000000001</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>49.707915999999997</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>48.41404</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>48.114711999999997</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>47.979529999999997</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>48.655434</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>48.404387999999997</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>48.346451000000002</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>49.427894999999999</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>49.234786999999997</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>50.123111999999999</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>48.114711999999997</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>46.762909000000001</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>47.738140000000001</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>48.800269999999998</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>49.408588000000002</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>49.398933</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>49.408588000000002</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>49.611359</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>49.611359</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>50.499690999999999</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>50.779708999999997</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>51.378365000000002</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>51.668033999999999</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>51.890121000000001</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>51.851497999999999</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>52.102547000000001</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>51.262497000000003</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>53.985424000000002</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>53.879207999999998</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>54.622700000000002</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>54.777194999999999</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>54.806164000000003</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>54.255778999999997</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>54.275092999999998</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>54.728915999999998</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>54.632365999999998</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>54.632365999999998</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>55.008938000000001</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>55.414478000000003</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>55.964851000000003</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>56.061413000000002</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>56.196598000000002</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>56.022789000000003</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>56.293148000000002</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>55.945540999999999</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>56.119343000000001</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>55.808433999999998</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>55.925026000000003</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>55.963889999999999</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>55.983322000000001</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>56.031902000000002</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>56.245654999999999</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>56.303947000000001</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>56.517699999999998</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>56.381680000000003</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>56.449688000000002</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>56.245654999999999</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>55.827866</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>55.954169999999998</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>56.031902000000002</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>55.973610000000001</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>56.022185999999998</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>55.798717000000003</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>54.613373000000003</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>55.429512000000003</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>54.924281999999998</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>54.661952999999997</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>55.565536000000002</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>55.623837000000002</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>55.312922999999998</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>55.196334999999998</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>56.119338999999997</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>56.177638999999999</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>55.798717000000003</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>55.283774999999999</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>56.303947000000001</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>56.381680000000003</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>55.769568999999997</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>55.963889999999999</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>55.789005000000003</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>55.614113000000003</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>56.002754000000003</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>56.099921999999999</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>56.158211000000001</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>56.391392000000003</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>55.565536000000002</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>55.487808000000001</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>55.303199999999997</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>55.789005000000003</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>55.594687999999998</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>56.022185999999998</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>55.895878000000003</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>55.623837000000002</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>57.965378000000001</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>59.267319000000001</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>59.257598999999999</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>58.907825000000003</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>58.392879000000001</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>58.169415000000001</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001">
+        <v>58.217987000000001</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <v>58.101402</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>57.741912999999997</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>57.528156000000003</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>57.042361999999997</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>58.703792999999997</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>58.752369000000002</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>58.460887999999997</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>57.032646</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>57.343555000000002</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>56.469116</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>57.584217000000002</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>58.347186999999998</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>59.315562999999997</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>59.031897999999998</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>59.530757999999999</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>59.785075999999997</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>59.080803000000003</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>59.207962000000002</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>59.286217000000001</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>59.755737000000003</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>58.943859000000003</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>57.907009000000002</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>57.955916999999999</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>58.904738999999999</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>58.640636000000001</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>60.029620999999999</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>59.677478999999998</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>60.616515999999997</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>60.812145000000001</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>61.604453999999997</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>61.311005000000002</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>61.213191999999999</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>60.939304</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>62.230476000000003</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>62.152225000000001</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>62.152225000000001</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>62.162002999999999</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>61.858780000000003</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>61.897896000000003</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>61.614235000000001</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>61.526206999999999</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>60.782795</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>61.213191999999999</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>60.939304</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>60.939304</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>61.467509999999997</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>61.271881</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>61.252316</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>61.809868000000002</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>61.242534999999997</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>61.330570000000002</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>61.164279999999998</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>61.134940999999998</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>60.939304</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>61.369694000000003</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>61.584887999999999</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>62.132660000000001</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>62.289161999999997</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>62.866275999999999</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>64.343299999999999</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>63.707489000000002</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>63.23798</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>62.191349000000002</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>61.790301999999997</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>62.289161999999997</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>62.250042000000001</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>62.044623999999999</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>61.956592999999998</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>62.660862000000002</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>62.602173000000001</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>63.306454000000002</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>63.542628999999998</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>63.503269000000003</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>63.493426999999997</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>63.591839</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>63.463904999999997</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>63.335971999999998</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>63.591839</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>63.591839</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>63.208046000000003</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>62.962017000000003</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>63.906753999999999</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>62.991546999999997</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>63.227722</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>63.247405999999998</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>63.375335999999997</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>63.955944000000002</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>63.700096000000002</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <v>63.896908000000003</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <v>63.680405</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1092">
+        <v>63.385181000000003</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <v>63.719771999999999</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <v>63.611519000000001</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <v>63.837859999999999</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <v>63.896908000000003</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <v>63.188361999999998</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <v>63.995311999999998</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <v>63.837859999999999</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <v>63.946114000000001</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <v>64.064194000000001</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <v>64.251175000000003</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <v>64.428321999999994</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <v>64.664496999999997</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <v>64.812111000000002</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <v>64.507041999999998</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>64.684180999999995</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>64.516875999999996</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>64.684180999999995</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>64.634979000000001</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>64.487358</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>64.438156000000006</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>64.192131000000003</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>63.916584</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>64.438156000000006</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>64.349586000000002</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>64.005156999999997</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <v>64.457831999999996</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <v>65.343513000000002</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <v>66.455535999999995</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <v>66.839325000000002</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <v>66.750771</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1123">
+        <v>67.183762000000002</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1124">
+        <v>67.370734999999996</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1125">
+        <v>68.305626000000004</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1126">
+        <v>68.197379999999995</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1127">
+        <v>67.980873000000003</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1128">
+        <v>67.715171999999995</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <v>67.902145000000004</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <v>67.843108999999998</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <v>67.941513</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <v>68.207206999999997</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <v>67.370734999999996</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <v>67.292006999999998</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <v>67.341217</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <v>68.697158999999999</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1137">
+        <v>66.786972000000006</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1138">
+        <v>67.014602999999994</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1139">
+        <v>66.994811999999996</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1140">
+        <v>67.747001999999995</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1141">
+        <v>67.974648000000002</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1142">
+        <v>68.063721000000001</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1143">
+        <v>68.904999000000004</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1144">
+        <v>69.241493000000006</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1145">
+        <v>69.686881999999997</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1146">
+        <v>69.122726</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1147">
+        <v>69.380058000000005</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1148">
+        <v>71.023017999999993</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1149">
+        <v>71.537673999999996</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1150">
+        <v>71.775199999999998</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1151">
+        <v>71.646545000000003</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1152">
+        <v>71.211060000000003</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1153">
+        <v>69.597801000000004</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1154">
+        <v>69.063346999999993</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1155">
+        <v>69.924415999999994</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1156">
+        <v>69.548309000000003</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1157">
+        <v>69.182113999999999</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1158">
+        <v>69.281090000000006</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1159">
+        <v>70.142150999999998</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1160">
+        <v>69.192017000000007</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1161">
+        <v>69.548309000000003</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>69.538421999999997</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1163">
+        <v>70.478661000000002</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1164">
+        <v>69.805649000000003</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1165">
+        <v>68.499199000000004</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1166">
+        <v>69.083145000000002</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>67.786597999999998</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>68.222076000000001</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>67.469879000000006</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>68.370543999999995</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1171">
+        <v>67.865775999999997</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1172">
+        <v>68.746634999999998</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1173">
+        <v>69.261298999999994</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1174">
+        <v>69.271193999999994</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>70.419280999999998</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>71.032905999999997</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>72.032539</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>72.596687000000003</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1179">
+        <v>72.547195000000002</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1180">
+        <v>73.101439999999997</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1181">
+        <v>73.457747999999995</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1182">
+        <v>73.032166000000004</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1183">
+        <v>72.844116</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1184">
+        <v>73.428055000000001</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1185">
+        <v>73.289496999999997</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1186">
+        <v>72.408637999999996</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1187">
+        <v>72.289871000000005</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1188">
+        <v>71.953354000000004</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1189">
+        <v>71.834594999999993</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1190">
+        <v>71.517882999999998</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1191">
+        <v>71.409003999999996</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1192">
+        <v>71.933563000000007</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1193">
+        <v>71.656447999999997</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1194">
+        <v>72.042434999999998</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1195">
+        <v>71.725723000000002</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1196">
+        <v>70.676613000000003</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1197">
+        <v>71.755409</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1198">
+        <v>72.834213000000005</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1199">
+        <v>72.854118</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1200">
+        <v>73.281975000000003</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1201">
+        <v>72.038216000000006</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1202">
+        <v>72.127762000000004</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1203">
+        <v>71.789467000000002</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1204">
+        <v>72.794417999999993</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1205">
+        <v>72.356621000000004</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1206">
+        <v>72.326767000000004</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1207">
+        <v>72.456115999999994</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1208">
+        <v>72.466071999999997</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1209">
+        <v>72.684974999999994</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1210">
+        <v>73.640174999999999</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1211">
+        <v>74.396370000000005</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1212">
+        <v>73.570526000000001</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1213">
+        <v>73.242171999999997</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1214">
+        <v>73.033218000000005</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1215">
+        <v>73.968520999999996</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1216">
+        <v>73.610320999999999</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1217">
+        <v>74.386429000000007</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1218">
+        <v>74.306824000000006</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1219">
+        <v>74.834175000000002</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1220">
+        <v>74.396370000000005</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1221">
+        <v>74.933670000000006</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1222">
+        <v>74.784430999999998</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1223">
+        <v>75.063025999999994</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1224">
+        <v>74.565528999999998</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1225">
+        <v>73.839172000000005</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1226">
+        <v>74.038177000000005</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1227">
+        <v>72.893921000000006</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1228">
+        <v>72.893921000000006</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1229">
+        <v>73.480971999999994</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1230">
+        <v>73.500870000000006</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1231">
+        <v>74.117767000000001</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1232">
+        <v>74.237174999999993</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1233">
+        <v>73.888924000000003</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1234">
+        <v>74.316772</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1235">
+        <v>75.590378000000001</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236">
+        <v>75.620223999999993</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1237">
+        <v>75.908775000000006</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1238">
+        <v>75.908775000000006</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1239">
+        <v>76.038123999999996</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1240">
+        <v>76.734634</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1241">
+        <v>77.102776000000006</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1242">
+        <v>77.261985999999993</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1243">
+        <v>77.202278000000007</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1244">
+        <v>77.222183000000001</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1245">
+        <v>77.520683000000005</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1246">
+        <v>78.416183000000004</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1247">
+        <v>78.436088999999996</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1248">
+        <v>78.465935000000002</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1249">
+        <v>78.237082999999998</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1250">
+        <v>78.366439999999997</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1251">
+        <v>83.391197000000005</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1252">
+        <v>83.470802000000006</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1253">
+        <v>82.764351000000005</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1254">
+        <v>82.764351000000005</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1255">
+        <v>83.630004999999997</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1256">
+        <v>83.719550999999996</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1257">
+        <v>84.047905</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1258">
+        <v>83.8489</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1259">
+        <v>84.137450999999999</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1260">
+        <v>83.669799999999995</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1261">
+        <v>83.450905000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>